--- a/CashFlow/ITW_cashflow.xlsx
+++ b/CashFlow/ITW_cashflow.xlsx
@@ -769,19 +769,19 @@
         </is>
       </c>
       <c r="C6" s="0" t="n">
-        <v>4720000000.0</v>
+        <v>43000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>4690000000.0</v>
+        <v>117000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>3561000000.0</v>
+        <v>73000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2437000000.0</v>
+        <v>82000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>1220000000.0</v>
+        <v>98000000.0</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>45000000.0</v>
@@ -1027,19 +1027,19 @@
         </is>
       </c>
       <c r="C8" s="0" t="n">
-        <v>19000000.0</v>
+        <v>1945000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-8000000.0</v>
+        <v>1883000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-61000000.0</v>
+        <v>1408000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>17000000.0</v>
+        <v>991000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>-99000000.0</v>
+        <v>404000000.0</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>-79000000.0</v>
